--- a/data/Hypoxic Volume.xlsx
+++ b/data/Hypoxic Volume.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\Projects\2024 Hypoxia Season Review\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5153034-696E-4E81-9BEB-71A85461D64F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC6E38D-D44A-4E36-B10D-88B285D0F6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{76B8C58B-6DE1-4C3F-A2F8-7966E8C7A62B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{76B8C58B-6DE1-4C3F-A2F8-7966E8C7A62B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Cruise</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>HYAUG23</t>
+  </si>
+  <si>
+    <t>HYJUL24</t>
   </si>
 </sst>
 </file>
@@ -175,10 +178,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -325,14 +327,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$C$2:$C$33</c15:sqref>
+                    <c15:sqref>Sheet1!$C$2:$C$35</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$C$3:$C$33</c:f>
+              <c:f>Sheet1!$C$3:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1992</c:v>
                 </c:pt>
@@ -425,6 +427,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -434,14 +442,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$2:$B$33</c15:sqref>
+                    <c15:sqref>Sheet1!$B$2:$B$35</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$3:$B$33</c:f>
+              <c:f>Sheet1!$B$3:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0.3</c:v>
                 </c:pt>
@@ -534,6 +542,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1350,9 +1364,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1390,7 +1404,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1496,7 +1510,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1638,7 +1652,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1646,18 +1660,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774BFD58-6997-418E-AAA7-0DA65DEB8C36}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1668,7 +1682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1679,7 +1693,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1690,7 +1704,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1701,334 +1715,345 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>9.8000000000000007</v>
       </c>
       <c r="C5" s="1">
         <v>1994</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>5.7</v>
       </c>
       <c r="C6" s="1">
         <v>1995</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>2.6</v>
       </c>
       <c r="C7" s="1">
         <v>1996</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" s="1">
         <v>1997</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>2.5</v>
       </c>
       <c r="C9" s="1">
         <v>1998</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>1.4</v>
       </c>
       <c r="C10" s="1">
         <v>1999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>2.5</v>
       </c>
       <c r="C11" s="1">
         <v>2000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>2.4</v>
       </c>
       <c r="C12" s="1">
         <v>2001</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>2.6</v>
       </c>
       <c r="C13" s="1">
         <v>2002</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <v>9.6</v>
       </c>
       <c r="C14" s="1">
         <v>2003</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
         <v>4.0999999999999996</v>
       </c>
       <c r="C15" s="1">
         <v>2004</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
         <v>5.5</v>
       </c>
       <c r="C16" s="1">
         <v>2005</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
         <v>4</v>
       </c>
       <c r="C17" s="1">
         <v>2006</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18">
         <v>3.5</v>
       </c>
       <c r="C18" s="1">
         <v>2007</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19">
         <v>6.9</v>
       </c>
       <c r="C19" s="1">
         <v>2008</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20">
         <v>2.6</v>
       </c>
       <c r="C20" s="1">
         <v>2009</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21">
         <v>1.6</v>
       </c>
       <c r="C21" s="1">
         <v>2010</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22">
         <v>2</v>
       </c>
       <c r="C22" s="1">
         <v>2011</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23">
         <v>4.3</v>
       </c>
       <c r="C23" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24">
         <v>0.9</v>
       </c>
       <c r="C24" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25">
         <v>0.6</v>
       </c>
       <c r="C25" s="1">
         <v>2014</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26">
         <v>0.3</v>
       </c>
       <c r="C26" s="1">
         <v>2015</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27">
         <v>2.6</v>
       </c>
       <c r="C27" s="1">
         <v>2016</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28">
         <v>0.2</v>
       </c>
       <c r="C28" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29">
         <v>0.3</v>
       </c>
       <c r="C29" s="1">
         <v>2018</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30">
         <v>1.3</v>
       </c>
       <c r="C30" s="1">
         <v>2019</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31">
         <v>0.8</v>
       </c>
       <c r="C31" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32">
         <v>2.5</v>
       </c>
       <c r="C32" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33">
         <v>0.6</v>
       </c>
       <c r="C33" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34">
         <v>1.2</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34">
         <v>2023</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>0.34</v>
+      </c>
+      <c r="C35">
+        <v>2024</v>
       </c>
     </row>
   </sheetData>
@@ -2038,6 +2063,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_activity xmlns="c867d1a5-5827-4927-b797-91c0fe867b8f" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E1862A7241CD5C4BB9A49AEC91EB145E" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2cbe0e63a8c602f5c0e699e53fd8a45b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="26e7f4b6-3714-4cf5-b0ae-a47b16f23eba" xmlns:ns4="c867d1a5-5827-4927-b797-91c0fe867b8f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ea9d018f1eaac7e8d305a917a25e6e6f" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2269,26 +2313,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E1903A-EEB9-4245-AC12-1E7F59FFF37B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="c867d1a5-5827-4927-b797-91c0fe867b8f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_activity xmlns="c867d1a5-5827-4927-b797-91c0fe867b8f" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4045E58C-C772-4FAA-9312-08684C499501}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1352E8F-8975-4947-A470-30E6AC264ED2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2306,23 +2350,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4045E58C-C772-4FAA-9312-08684C499501}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E1903A-EEB9-4245-AC12-1E7F59FFF37B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="c867d1a5-5827-4927-b797-91c0fe867b8f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>